--- a/data_source/金额数据.xlsx
+++ b/data_source/金额数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/linuxyan.github.io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{638A6CCF-E62B-814A-B419-645D60C65F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A2DC9B-02FD-A140-B695-95CB986B85F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16940"/>
+    <workbookView xWindow="39780" yWindow="2780" windowWidth="28240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="金额数据" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -1030,11 +1030,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1237,7 +1237,7 @@
         <v>1.02</v>
       </c>
       <c r="D12">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="E12">
         <v>98.039215690000006</v>

--- a/data_source/金额数据.xlsx
+++ b/data_source/金额数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/linuxyan.github.io/data_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A2DC9B-02FD-A140-B695-95CB986B85F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1C0CFF-E87C-0349-8172-E7586B5211DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39780" yWindow="2780" windowWidth="28240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="640" windowWidth="28240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="金额数据" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>日期</t>
   </si>
@@ -37,49 +37,8 @@
     <t>数量</t>
   </si>
   <si>
-    <t>2021.1.1</t>
-  </si>
-  <si>
-    <t>2021.2.1</t>
-  </si>
-  <si>
-    <t>2021.3.1</t>
-  </si>
-  <si>
-    <t>2021.4.1</t>
-  </si>
-  <si>
-    <t>2021.5.1</t>
-  </si>
-  <si>
-    <t>2021.6.1</t>
-  </si>
-  <si>
-    <t>2021.7.1</t>
-  </si>
-  <si>
-    <t>2021.8.1</t>
-  </si>
-  <si>
-    <t>2021.9.1</t>
-  </si>
-  <si>
-    <t>2021.10.1</t>
-  </si>
-  <si>
-    <t>2021.11.1</t>
-  </si>
-  <si>
-    <t>2021.12.1</t>
-  </si>
-  <si>
-    <t>2022.1.1</t>
-  </si>
-  <si>
-    <t>2022.2.1</t>
-  </si>
-  <si>
-    <t>2022.3.1</t>
+    <t>2021.12.30</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1031,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1061,254 +1020,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4.92</v>
       </c>
       <c r="C2">
-        <v>1.02</v>
+        <v>4.92</v>
       </c>
       <c r="D2">
-        <v>10000</v>
+        <v>24600</v>
       </c>
       <c r="E2">
-        <v>98.039215690000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1.02</v>
-      </c>
-      <c r="D3">
-        <v>10000</v>
-      </c>
-      <c r="E3">
-        <v>98.039215690000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1.04</v>
-      </c>
-      <c r="D4">
-        <v>11000</v>
-      </c>
-      <c r="E4">
-        <v>105.7692308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1.02</v>
-      </c>
-      <c r="D5">
-        <v>10000</v>
-      </c>
-      <c r="E5">
-        <v>98.039215690000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1.02</v>
-      </c>
-      <c r="D6">
-        <v>10000</v>
-      </c>
-      <c r="E6">
-        <v>98.039215690000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1.02</v>
-      </c>
-      <c r="D7">
-        <v>10000</v>
-      </c>
-      <c r="E7">
-        <v>98.039215690000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1.02</v>
-      </c>
-      <c r="D8">
-        <v>10000</v>
-      </c>
-      <c r="E8">
-        <v>98.039215690000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1.06</v>
-      </c>
-      <c r="D9">
-        <v>10000</v>
-      </c>
-      <c r="E9">
-        <v>94.339622640000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1.02</v>
-      </c>
-      <c r="D10">
-        <v>12000</v>
-      </c>
-      <c r="E10">
-        <v>117.6470588</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1.02</v>
-      </c>
-      <c r="D11">
-        <v>10000</v>
-      </c>
-      <c r="E11">
-        <v>98.039215690000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1.02</v>
-      </c>
-      <c r="D12">
-        <v>11000</v>
-      </c>
-      <c r="E12">
-        <v>98.039215690000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D13">
-        <v>10000</v>
-      </c>
-      <c r="E13">
-        <v>90.909090910000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="D14">
-        <v>10000</v>
-      </c>
-      <c r="E14">
-        <v>89.285714290000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="D15">
-        <v>10000</v>
-      </c>
-      <c r="E15">
-        <v>89.285714290000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="D16">
-        <v>10000</v>
-      </c>
-      <c r="E16">
-        <v>86.956521739999999</v>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/data_source/金额数据.xlsx
+++ b/data_source/金额数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/linuxyan.github.io/data_source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1C0CFF-E87C-0349-8172-E7586B5211DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70F9ECD-8AE5-A848-BB96-DA54EE45896E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="640" windowWidth="28240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18220" yWindow="7860" windowWidth="28240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="金额数据" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>日期</t>
   </si>
@@ -38,6 +38,10 @@
   </si>
   <si>
     <t>2021.12.30</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.01.07</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -990,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1032,6 +1036,23 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>4.92</v>
+      </c>
+      <c r="C3">
+        <v>4.83</v>
+      </c>
+      <c r="D3">
+        <v>25116</v>
+      </c>
+      <c r="E3">
+        <v>5200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_source/金额数据.xlsx
+++ b/data_source/金额数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70F9ECD-8AE5-A848-BB96-DA54EE45896E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A51E13-B2FB-2645-8E0C-ADF6F1C45B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18220" yWindow="7860" windowWidth="28240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>日期</t>
   </si>
@@ -42,6 +42,10 @@
   </si>
   <si>
     <t>2022.01.07</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.01.11</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -994,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1053,6 +1057,23 @@
         <v>5200</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>4.92</v>
+      </c>
+      <c r="C4">
+        <v>4.79</v>
+      </c>
+      <c r="D4">
+        <v>25387</v>
+      </c>
+      <c r="E4">
+        <v>5300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_source/金额数据.xlsx
+++ b/data_source/金额数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A51E13-B2FB-2645-8E0C-ADF6F1C45B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3412B2F7-A3D6-6D4D-9141-A47331651FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18220" yWindow="7860" windowWidth="28240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15020" yWindow="12140" windowWidth="28240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="金额数据" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
   </si>
@@ -46,6 +46,10 @@
   </si>
   <si>
     <t>2022.01.11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.01.21</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -998,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1074,6 +1078,23 @@
         <v>5300</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>4.92</v>
+      </c>
+      <c r="C5">
+        <v>4.7690000000000001</v>
+      </c>
+      <c r="D5">
+        <v>25275</v>
+      </c>
+      <c r="E5">
+        <v>5300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_source/金额数据.xlsx
+++ b/data_source/金额数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3412B2F7-A3D6-6D4D-9141-A47331651FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C12E77C-01F6-9E49-8425-160C79458FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15020" yWindow="12140" windowWidth="28240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15020" yWindow="11860" windowWidth="28240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="金额数据" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>日期</t>
   </si>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>2022.01.21</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.01.25</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1002,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1095,6 +1099,23 @@
         <v>5300</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>4.92</v>
+      </c>
+      <c r="C6">
+        <v>4.7160000000000002</v>
+      </c>
+      <c r="D6">
+        <v>25466</v>
+      </c>
+      <c r="E6">
+        <v>5400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_source/金额数据.xlsx
+++ b/data_source/金额数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C12E77C-01F6-9E49-8425-160C79458FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{164CEEA8-864C-8148-BC81-023A5F173F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15020" yWindow="11860" windowWidth="28240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>日期</t>
   </si>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>2022.01.25</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.03.01</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1006,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1116,6 +1120,23 @@
         <v>5400</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>4.92</v>
+      </c>
+      <c r="C7">
+        <v>4.6109999999999998</v>
+      </c>
+      <c r="D7">
+        <v>23055</v>
+      </c>
+      <c r="E7">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_source/金额数据.xlsx
+++ b/data_source/金额数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{164CEEA8-864C-8148-BC81-023A5F173F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31208897-E8DE-F14F-9D5C-303427736F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15020" yWindow="11860" windowWidth="28240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>日期</t>
   </si>
@@ -58,6 +58,10 @@
   </si>
   <si>
     <t>2022.03.01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.03.31</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1010,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1137,6 +1141,23 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>4.92</v>
+      </c>
+      <c r="C8">
+        <v>4.2130000000000001</v>
+      </c>
+      <c r="D8">
+        <v>24014</v>
+      </c>
+      <c r="E8">
+        <v>5700</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_source/金额数据.xlsx
+++ b/data_source/金额数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31208897-E8DE-F14F-9D5C-303427736F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCCB18D-6318-0442-AAC9-D564B3DDD3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15020" yWindow="11860" windowWidth="28240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>日期</t>
   </si>
@@ -62,6 +62,14 @@
   </si>
   <si>
     <t>2022.03.31</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.04.21</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.04.25</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1014,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1158,6 +1166,40 @@
         <v>5700</v>
       </c>
     </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>4.92</v>
+      </c>
+      <c r="C9">
+        <v>4.0140000000000002</v>
+      </c>
+      <c r="D9">
+        <v>20070</v>
+      </c>
+      <c r="E9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>4.92</v>
+      </c>
+      <c r="C10">
+        <v>3.8679999999999999</v>
+      </c>
+      <c r="D10">
+        <v>21274</v>
+      </c>
+      <c r="E10">
+        <v>5500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_source/金额数据.xlsx
+++ b/data_source/金额数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCCB18D-6318-0442-AAC9-D564B3DDD3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD93B4E7-678E-8F41-869B-7E561FE5F6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15020" yWindow="11860" windowWidth="28240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16240" yWindow="9440" windowWidth="28240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="金额数据" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>日期</t>
   </si>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>2022.04.25</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.05.31</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1022,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1200,6 +1204,23 @@
         <v>5500</v>
       </c>
     </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>4.92</v>
+      </c>
+      <c r="C11">
+        <v>4.0880000000000001</v>
+      </c>
+      <c r="D11">
+        <v>26986</v>
+      </c>
+      <c r="E11">
+        <v>6600</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_source/金额数据.xlsx
+++ b/data_source/金额数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD93B4E7-678E-8F41-869B-7E561FE5F6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9DF3ED5-509D-F441-81D0-8DCC8FAA584F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16240" yWindow="9440" windowWidth="28240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>日期</t>
   </si>
@@ -74,6 +74,10 @@
   </si>
   <si>
     <t>2022.05.31</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.06.30</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1026,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1221,6 +1225,23 @@
         <v>6600</v>
       </c>
     </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>4.92</v>
+      </c>
+      <c r="C12">
+        <v>4.5140000000000002</v>
+      </c>
+      <c r="D12">
+        <v>23021</v>
+      </c>
+      <c r="E12">
+        <v>5100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
